--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>697425.1337200816</v>
+        <v>718256.9187122686</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16799231.59170663</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>1217434.385186759</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7072683.095984659</v>
+        <v>7423737.365167299</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>243.8418820985349</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>408.7916070055593</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +825,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>134.7806822622879</v>
       </c>
       <c r="G4" t="n">
-        <v>140.511665725984</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>272.4607975812113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>321.1114389947168</v>
       </c>
     </row>
     <row r="6">
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1136,7 +1138,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>202.734408063458</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>224.0420149242196</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,16 +1293,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>116.043407939862</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1342,7 +1344,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>31.28831241118253</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>85.64007343912586</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>231.4258504467568</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>358.9235711288669</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>79.17736807715151</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1777,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170454</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>155.2022955251545</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -2008,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2020,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>47.61404849749822</v>
       </c>
       <c r="T19" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257828</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3427,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>61.23284287475791</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>190.8391516133776</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>114.4841303987783</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>35.34780583513581</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>213.1024441565528</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>23.21710985618041</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4144,13 +4146,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>111.509818326495</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4189,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2076.926707700497</v>
+        <v>791.4099871095558</v>
       </c>
       <c r="C2" t="n">
-        <v>1638.78423488392</v>
+        <v>353.2675142929791</v>
       </c>
       <c r="D2" t="n">
-        <v>1202.874450058365</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>1173.140109257064</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>745.2726796662719</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>343.8748482895357</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1344.116250983141</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1344.116250983141</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2517.167459510636</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2517.167459510636</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>2517.167459510636</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W2" t="n">
-        <v>2516.352408962074</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X2" t="n">
-        <v>2103.431593804943</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y2" t="n">
-        <v>2099.185874145001</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>382.60715354234</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L3" t="n">
-        <v>382.60715354234</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M3" t="n">
-        <v>382.60715354234</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="N3" t="n">
-        <v>382.60715354234</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O3" t="n">
-        <v>382.60715354234</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1036.070763543674</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C4" t="n">
-        <v>863.509052026899</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D4" t="n">
-        <v>697.6310592284217</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E4" t="n">
-        <v>527.8730554791589</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="F4" t="n">
-        <v>351.1660014409151</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>209.2350259601232</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2715.81686534297</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2556.575496640966</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2310.696050219422</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>2032.263049472527</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V4" t="n">
-        <v>1745.307541342957</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1473.281136929249</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X4" t="n">
-        <v>1227.889382262661</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1227.889382262661</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819.4287717597048</v>
+        <v>2102.774470123994</v>
       </c>
       <c r="C5" t="n">
-        <v>544.2158449099963</v>
+        <v>1664.631997307418</v>
       </c>
       <c r="D5" t="n">
-        <v>512.3464641248449</v>
+        <v>1228.722212481862</v>
       </c>
       <c r="E5" t="n">
-        <v>78.57171928314017</v>
+        <v>794.9474676401574</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K5" t="n">
-        <v>489.9993811856698</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L5" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="M5" t="n">
-        <v>1844.930551071281</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="N5" t="n">
-        <v>2522.396136014086</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O5" t="n">
-        <v>2522.396136014086</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P5" t="n">
-        <v>2522.396136014086</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.012383954615</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.012383954615</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="W5" t="n">
-        <v>2073.156929365648</v>
+        <v>3272.571492913144</v>
       </c>
       <c r="X5" t="n">
-        <v>1654.014465944959</v>
+        <v>2853.429029492454</v>
       </c>
       <c r="Y5" t="n">
-        <v>1245.728342244613</v>
+        <v>2529.074040608902</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J6" t="n">
-        <v>363.05328532595</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K6" t="n">
-        <v>363.05328532595</v>
+        <v>758.6834035629588</v>
       </c>
       <c r="L6" t="n">
-        <v>363.05328532595</v>
+        <v>1713.226452374063</v>
       </c>
       <c r="M6" t="n">
-        <v>1040.518870268755</v>
+        <v>1713.226452374063</v>
       </c>
       <c r="N6" t="n">
-        <v>1040.518870268755</v>
+        <v>1713.226452374063</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>1713.226452374063</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.802854344633</v>
+        <v>1157.008044104463</v>
       </c>
       <c r="C7" t="n">
-        <v>961.2411428278582</v>
+        <v>984.4463325876878</v>
       </c>
       <c r="D7" t="n">
-        <v>795.3631500293809</v>
+        <v>818.5683397892105</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>648.8103360399477</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>472.1032820017039</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S7" t="n">
-        <v>2671.404303635552</v>
+        <v>2513.950303398749</v>
       </c>
       <c r="T7" t="n">
-        <v>2425.524857214007</v>
+        <v>2268.070856977205</v>
       </c>
       <c r="U7" t="n">
-        <v>2357.414810959378</v>
+        <v>1989.63785623031</v>
       </c>
       <c r="V7" t="n">
-        <v>2070.459302829808</v>
+        <v>1702.68234810074</v>
       </c>
       <c r="W7" t="n">
-        <v>1798.4328984161</v>
+        <v>1702.68234810074</v>
       </c>
       <c r="X7" t="n">
-        <v>1553.041143749512</v>
+        <v>1576.246333509342</v>
       </c>
       <c r="Y7" t="n">
-        <v>1325.62147306362</v>
+        <v>1348.82666282345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675.528876323761</v>
+        <v>2018.8433353072</v>
       </c>
       <c r="C8" t="n">
-        <v>1237.386403507184</v>
+        <v>1580.700862490623</v>
       </c>
       <c r="D8" t="n">
-        <v>1205.517022722033</v>
+        <v>1144.791077665068</v>
       </c>
       <c r="E8" t="n">
-        <v>771.7422778803279</v>
+        <v>711.016332823363</v>
       </c>
       <c r="F8" t="n">
-        <v>343.8748482895357</v>
+        <v>283.1489032325707</v>
       </c>
       <c r="G8" t="n">
-        <v>343.8748482895357</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L8" t="n">
-        <v>732.2102786755574</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="M8" t="n">
-        <v>1409.675863618363</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="N8" t="n">
-        <v>2087.141448561168</v>
+        <v>2386.365580449782</v>
       </c>
       <c r="O8" t="n">
-        <v>2737.234686637598</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="P8" t="n">
-        <v>2737.234686637598</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.419636089035</v>
+        <v>3272.571492913144</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.114570509015</v>
+        <v>2853.429029492454</v>
       </c>
       <c r="Y8" t="n">
-        <v>2101.828446808669</v>
+        <v>2445.142905792108</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I9" t="n">
-        <v>58.04882857612763</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J9" t="n">
-        <v>382.60715354234</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K9" t="n">
-        <v>382.60715354234</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="L9" t="n">
-        <v>1060.072738485145</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="M9" t="n">
-        <v>1060.072738485145</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="N9" t="n">
-        <v>1060.072738485145</v>
+        <v>659.3870586563556</v>
       </c>
       <c r="O9" t="n">
-        <v>1060.072738485145</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.8207098557364</v>
+        <v>980.300990066219</v>
       </c>
       <c r="C10" t="n">
-        <v>742.8207098557364</v>
+        <v>807.739278549444</v>
       </c>
       <c r="D10" t="n">
-        <v>742.8207098557364</v>
+        <v>641.8612857509667</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>472.1032820017039</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>472.1032820017039</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2513.950303398749</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2482.345947427858</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>2203.912946680963</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>1916.957438551394</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>1644.931034137685</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>1399.539279471098</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.6393285747235</v>
+        <v>1172.119608785206</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>579.3922912353144</v>
+        <v>1642.530127068233</v>
       </c>
       <c r="C11" t="n">
-        <v>141.2498184187377</v>
+        <v>1204.387654251657</v>
       </c>
       <c r="D11" t="n">
-        <v>54.74469373275195</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="E11" t="n">
-        <v>54.74469373275195</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="F11" t="n">
-        <v>54.74469373275195</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L11" t="n">
-        <v>1167.464966128475</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S11" t="n">
-        <v>2653.582812821435</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T11" t="n">
-        <v>2433.515585694473</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U11" t="n">
-        <v>2174.293283011491</v>
+        <v>3663.730689329317</v>
       </c>
       <c r="V11" t="n">
-        <v>1811.676332945317</v>
+        <v>3301.113739263144</v>
       </c>
       <c r="W11" t="n">
-        <v>1406.82087835635</v>
+        <v>2896.258284674177</v>
       </c>
       <c r="X11" t="n">
-        <v>987.678414935661</v>
+        <v>2477.115821253488</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.3922912353144</v>
+        <v>2068.829697553141</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K12" t="n">
-        <v>499.7799316366797</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L12" t="n">
-        <v>499.7799316366797</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M12" t="n">
-        <v>499.7799316366797</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N12" t="n">
-        <v>499.7799316366797</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O12" t="n">
-        <v>499.7799316366797</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P12" t="n">
-        <v>1177.245516579485</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.414810959378</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.459302829808</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.4328984161</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1142.333694861421</v>
+        <v>2295.436075788677</v>
       </c>
       <c r="C14" t="n">
-        <v>1142.333694861421</v>
+        <v>1857.2936029721</v>
       </c>
       <c r="D14" t="n">
-        <v>706.4239100358659</v>
+        <v>1421.383818146545</v>
       </c>
       <c r="E14" t="n">
-        <v>706.4239100358659</v>
+        <v>987.60907330484</v>
       </c>
       <c r="F14" t="n">
-        <v>706.4239100358659</v>
+        <v>559.7416437140478</v>
       </c>
       <c r="G14" t="n">
-        <v>343.8748482895357</v>
+        <v>158.3438123373116</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>3534.877224562898</v>
       </c>
       <c r="W14" t="n">
-        <v>1969.762281982458</v>
+        <v>3130.021769973931</v>
       </c>
       <c r="X14" t="n">
-        <v>1550.619818561768</v>
+        <v>3130.021769973931</v>
       </c>
       <c r="Y14" t="n">
-        <v>1142.333694861421</v>
+        <v>2721.735646273585</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K15" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1045.142905119309</v>
+        <v>787.4437209101934</v>
       </c>
       <c r="C16" t="n">
-        <v>872.5811936025335</v>
+        <v>614.8820093934183</v>
       </c>
       <c r="D16" t="n">
-        <v>706.7032008040562</v>
+        <v>449.004016594941</v>
       </c>
       <c r="E16" t="n">
-        <v>536.9451970547935</v>
+        <v>279.2460128456783</v>
       </c>
       <c r="F16" t="n">
-        <v>360.2381430165498</v>
+        <v>102.5389588074345</v>
       </c>
       <c r="G16" t="n">
-        <v>194.6468680423774</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2535.368124693377</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2289.488678271833</v>
       </c>
       <c r="U16" t="n">
-        <v>2268.754861734053</v>
+        <v>2011.055677524938</v>
       </c>
       <c r="V16" t="n">
-        <v>1981.799353604483</v>
+        <v>1724.100169395368</v>
       </c>
       <c r="W16" t="n">
-        <v>1709.772949190775</v>
+        <v>1452.07376498166</v>
       </c>
       <c r="X16" t="n">
-        <v>1464.381194524188</v>
+        <v>1206.682010315072</v>
       </c>
       <c r="Y16" t="n">
-        <v>1236.961523838296</v>
+        <v>979.2623396291806</v>
       </c>
     </row>
     <row r="17">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.825451691258</v>
       </c>
       <c r="T19" t="n">
-        <v>2683.3639582443</v>
+        <v>2424.946005269713</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2146.513004522818</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5777,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>525.945884713274</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1601.005850966133</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6883,7 +6885,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
         <v>2454.80183470935</v>
@@ -6923,43 +6925,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1952.097456569358</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.439125807381</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.296652990805</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="D41" t="n">
-        <v>916.3868681652491</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="E41" t="n">
-        <v>482.6121233235442</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K41" t="n">
-        <v>666.6506660403358</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L41" t="n">
-        <v>1344.116250983141</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="M41" t="n">
-        <v>2021.581835925947</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="N41" t="n">
-        <v>2021.581835925947</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="O41" t="n">
-        <v>2021.581835925947</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.581835925947</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3418.204644819127</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3055.587694752953</v>
       </c>
       <c r="W41" t="n">
-        <v>2332.379232048631</v>
+        <v>2650.732240163987</v>
       </c>
       <c r="X41" t="n">
-        <v>2332.379232048631</v>
+        <v>2231.589776743298</v>
       </c>
       <c r="Y41" t="n">
-        <v>2216.738696292289</v>
+        <v>1823.303653042951</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2385311503645</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C43" t="n">
-        <v>591.6768196335894</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D43" t="n">
-        <v>425.7988268351121</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E43" t="n">
-        <v>256.0408230858494</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F43" t="n">
-        <v>220.3359687069243</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.283488512004</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.850487765109</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.894979635539</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.868575221831</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.476820555243</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0571498693516</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1142.333694861421</v>
+        <v>2215.458936316807</v>
       </c>
       <c r="C44" t="n">
-        <v>704.1912220448448</v>
+        <v>1777.31646350023</v>
       </c>
       <c r="D44" t="n">
-        <v>488.9362279473168</v>
+        <v>1341.406678674675</v>
       </c>
       <c r="E44" t="n">
-        <v>55.16148310561195</v>
+        <v>907.6319338329698</v>
       </c>
       <c r="F44" t="n">
-        <v>55.16148310561195</v>
+        <v>479.7645042421776</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K44" t="n">
-        <v>1167.464966128475</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L44" t="n">
-        <v>1344.116250983141</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="M44" t="n">
-        <v>1344.116250983141</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.116250983141</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="V44" t="n">
-        <v>2374.617736571424</v>
+        <v>3874.042548511718</v>
       </c>
       <c r="W44" t="n">
-        <v>1969.762281982458</v>
+        <v>3469.187093922751</v>
       </c>
       <c r="X44" t="n">
-        <v>1550.619818561768</v>
+        <v>3050.044630502061</v>
       </c>
       <c r="Y44" t="n">
-        <v>1142.333694861421</v>
+        <v>2641.758506801715</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2385311503645</v>
+        <v>1157.008044104463</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6768196335894</v>
+        <v>984.4463325876878</v>
       </c>
       <c r="D46" t="n">
-        <v>425.7988268351121</v>
+        <v>818.5683397892105</v>
       </c>
       <c r="E46" t="n">
-        <v>256.0408230858494</v>
+        <v>648.8103360399477</v>
       </c>
       <c r="F46" t="n">
-        <v>256.0408230858494</v>
+        <v>472.1032820017039</v>
       </c>
       <c r="G46" t="n">
-        <v>256.0408230858494</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2535.368124693377</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2289.488678271833</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>2289.488678271833</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>2093.664492589638</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.868575221831</v>
+        <v>1821.638088175929</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.476820555243</v>
+        <v>1576.246333509342</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0571498693516</v>
+        <v>1348.82666282345</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8055,16 +8057,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>17.17305800913118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>285.0958772047883</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>28.24564908821003</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>514.5814108871991</v>
       </c>
       <c r="O8" t="n">
-        <v>656.6598364408383</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.33750994280372</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>587.3102779432063</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>449.5305433373007</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>427.964691356055</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>345.9106135381741</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23270,10 +23272,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>25.20422920939643</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>38.46028193410183</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>207.0614849340644</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="T19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>231.1974231666811</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>289.7191320645648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>218.4482428207471</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25922,7 +25924,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>335.7736707093313</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>26.99333424003424</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>665008.1917762395</v>
+        <v>664478.8888987686</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>665008.1917762395</v>
+        <v>674150.5677499</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>665008.1917762395</v>
+        <v>674150.5677499</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>438505.3289080078</v>
+        <v>552932.9065101378</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>438505.3289080078</v>
+        <v>552932.9065101377</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672813.154080229</v>
+        <v>672813.1540802291</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>438505.3289080077</v>
+        <v>552932.9065101378</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438505.3289080078</v>
+        <v>552932.9065101377</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>308284.7089369848</v>
       </c>
       <c r="C2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>197442.8824269991</v>
+        <v>248965.4279047608</v>
       </c>
       <c r="F2" t="n">
-        <v>197442.8824269991</v>
+        <v>248965.4279047608</v>
       </c>
       <c r="G2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="H2" t="n">
         <v>302943.1108789776</v>
@@ -26344,16 +26346,16 @@
         <v>302943.1108789775</v>
       </c>
       <c r="M2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="N2" t="n">
         <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
-        <v>197442.8824269991</v>
+        <v>248965.4279047609</v>
       </c>
       <c r="P2" t="n">
-        <v>197442.8824269991</v>
+        <v>248965.4279047608</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>99136.93345537239</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>83290.85735690568</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>78975.51648973278</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145586.4697342201</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="C4" t="n">
-        <v>145586.4697342201</v>
+        <v>103722.7246376233</v>
       </c>
       <c r="D4" t="n">
-        <v>145586.4697342201</v>
+        <v>103722.7246376233</v>
       </c>
       <c r="E4" t="n">
-        <v>35560.61726858468</v>
+        <v>44840.12888185008</v>
       </c>
       <c r="F4" t="n">
-        <v>35560.61726858468</v>
+        <v>44840.12888185008</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
@@ -26442,7 +26444,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962276</v>
@@ -26451,13 +26453,13 @@
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="O4" t="n">
-        <v>35560.61726858468</v>
+        <v>44840.12888185009</v>
       </c>
       <c r="P4" t="n">
-        <v>35560.61726858468</v>
+        <v>44840.12888185009</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436188</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436188</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141862.9030066397</v>
+        <v>-137637.7084546069</v>
       </c>
       <c r="C6" t="n">
-        <v>87464.67196587333</v>
+        <v>12555.53938962711</v>
       </c>
       <c r="D6" t="n">
-        <v>87464.67196587333</v>
+        <v>111692.4728449996</v>
       </c>
       <c r="E6" t="n">
-        <v>120276.297921523</v>
+        <v>144883.3875685488</v>
       </c>
       <c r="F6" t="n">
-        <v>120276.297921523</v>
+        <v>144883.3875685489</v>
       </c>
       <c r="G6" t="n">
-        <v>7869.759365120844</v>
+        <v>87372.18980665656</v>
       </c>
       <c r="H6" t="n">
         <v>170663.0471635623</v>
@@ -26543,25 +26545,25 @@
         <v>170663.0471635622</v>
       </c>
       <c r="J6" t="n">
-        <v>-8382.210924089683</v>
+        <v>-3988.301554143953</v>
       </c>
       <c r="K6" t="n">
-        <v>170663.0471635622</v>
+        <v>91687.53067382946</v>
       </c>
       <c r="L6" t="n">
         <v>170663.0471635622</v>
       </c>
       <c r="M6" t="n">
-        <v>170663.0471635623</v>
+        <v>170663.0471635622</v>
       </c>
       <c r="N6" t="n">
         <v>170663.0471635622</v>
       </c>
       <c r="O6" t="n">
-        <v>120276.2979215229</v>
+        <v>144883.3875685489</v>
       </c>
       <c r="P6" t="n">
-        <v>120276.2979215229</v>
+        <v>144883.3875685488</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274775</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274775</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.708804878765</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.159431780923114</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>40.15930123557339</v>
       </c>
       <c r="G4" t="n">
-        <v>23.42369649844656</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>161.3002505071996</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,10 +27669,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>83.09182346862633</v>
       </c>
     </row>
     <row r="6">
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>194.6494449995108</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>190.9090238622628</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>52.01701577190815</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>212.1323395461467</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>17.17305800913118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>285.0958772047883</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>28.24564908821003</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>514.5814108871991</v>
       </c>
       <c r="O8" t="n">
-        <v>656.6598364408383</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.33750994280372</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>587.3102779432063</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,22 +35412,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>449.5305433373007</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,22 +35649,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>427.964691356055</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,7 +37162,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718256.9187122686</v>
+        <v>717510.7167221201</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16799231.59170663</v>
+        <v>16799231.59170662</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>243.8418820985349</v>
+        <v>428.2210218768698</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -715,10 +715,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -825,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>134.7806822622879</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>125.5274165476669</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -910,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>321.1114389947168</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682158</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1116,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>125.1716544454844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>202.734408063458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>134.3621099079335</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>31.28831241118253</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1378,19 +1378,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>55.04695331911621</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>231.4258504467568</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1621,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>79.17736807715151</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>62.02280383276916</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170454</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,10 +1821,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.61404849749822</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135472</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>108.5103196251633</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>190.8391516133776</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>71.3804749167322</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950061</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>103.6997458402531</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>23.21710985618041</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>791.4099871095558</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C2" t="n">
-        <v>353.2675142929791</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D2" t="n">
         <v>106.9625828803175</v>
@@ -4363,19 +4363,19 @@
         <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304466</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304466</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>2045.1381447155</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X2" t="n">
-        <v>1625.99568129481</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y2" t="n">
-        <v>1217.709557594464</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.1364226482438</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>749.5747111314687</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>583.6967183329914</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6967183329914</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262988</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1586.76646671971</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.374712053123</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.955041367231</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2102.774470123994</v>
+        <v>2100.548686833186</v>
       </c>
       <c r="C5" t="n">
-        <v>1664.631997307418</v>
+        <v>2066.446618057014</v>
       </c>
       <c r="D5" t="n">
-        <v>1228.722212481862</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="E5" t="n">
-        <v>794.9474676401574</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F5" t="n">
-        <v>367.0800380493652</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G5" t="n">
-        <v>367.0800380493652</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H5" t="n">
-        <v>77.94988349258144</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I5" t="n">
         <v>77.94988349258144</v>
       </c>
       <c r="J5" t="n">
-        <v>513.2045709454993</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K5" t="n">
-        <v>1347.554862903677</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L5" t="n">
-        <v>1347.554862903677</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="M5" t="n">
-        <v>1347.554862903677</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="N5" t="n">
-        <v>1388.901640863328</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="O5" t="n">
-        <v>2353.531449084023</v>
+        <v>2841.55979189215</v>
       </c>
       <c r="P5" t="n">
-        <v>3181.84132391742</v>
+        <v>3669.869666725546</v>
       </c>
       <c r="Q5" t="n">
-        <v>3728.340109876015</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R5" t="n">
         <v>3897.494174629071</v>
@@ -4600,19 +4600,19 @@
         <v>3677.42694750211</v>
       </c>
       <c r="U5" t="n">
-        <v>3677.42694750211</v>
+        <v>3418.204644819127</v>
       </c>
       <c r="V5" t="n">
-        <v>3677.42694750211</v>
+        <v>3055.587694752953</v>
       </c>
       <c r="W5" t="n">
-        <v>3272.571492913144</v>
+        <v>2650.732240163987</v>
       </c>
       <c r="X5" t="n">
-        <v>2853.429029492454</v>
+        <v>2231.589776743298</v>
       </c>
       <c r="Y5" t="n">
-        <v>2529.074040608902</v>
+        <v>2227.344057083355</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>77.94988349258144</v>
       </c>
       <c r="I6" t="n">
-        <v>77.94988349258144</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J6" t="n">
-        <v>77.94988349258144</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K6" t="n">
-        <v>758.6834035629588</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L6" t="n">
-        <v>1713.226452374063</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M6" t="n">
-        <v>1713.226452374063</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N6" t="n">
-        <v>1713.226452374063</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O6" t="n">
-        <v>1713.226452374063</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P6" t="n">
-        <v>1741.18964497139</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q6" t="n">
-        <v>1741.18964497139</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R6" t="n">
         <v>1741.18964497139</v>
@@ -4764,13 +4764,13 @@
         <v>1702.68234810074</v>
       </c>
       <c r="W7" t="n">
-        <v>1702.68234810074</v>
+        <v>1430.655943687032</v>
       </c>
       <c r="X7" t="n">
-        <v>1576.246333509342</v>
+        <v>1185.264189020444</v>
       </c>
       <c r="Y7" t="n">
-        <v>1348.82666282345</v>
+        <v>1185.264189020444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2018.8433353072</v>
+        <v>2103.191259496854</v>
       </c>
       <c r="C8" t="n">
-        <v>1580.700862490623</v>
+        <v>1665.048786680278</v>
       </c>
       <c r="D8" t="n">
-        <v>1144.791077665068</v>
+        <v>1229.139001854722</v>
       </c>
       <c r="E8" t="n">
-        <v>711.016332823363</v>
+        <v>795.3642570130174</v>
       </c>
       <c r="F8" t="n">
-        <v>283.1489032325707</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="G8" t="n">
-        <v>78.36667286544143</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H8" t="n">
         <v>78.36667286544143</v>
@@ -4804,28 +4804,28 @@
         <v>77.94988349258144</v>
       </c>
       <c r="J8" t="n">
-        <v>77.94988349258144</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K8" t="n">
-        <v>912.3001754507594</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="L8" t="n">
-        <v>1876.929983671454</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M8" t="n">
-        <v>1876.929983671454</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N8" t="n">
-        <v>2386.365580449782</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O8" t="n">
-        <v>3350.995388670477</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P8" t="n">
-        <v>3350.995388670477</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q8" t="n">
-        <v>3897.494174629071</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R8" t="n">
         <v>3897.494174629071</v>
@@ -4834,22 +4834,22 @@
         <v>3897.494174629071</v>
       </c>
       <c r="T8" t="n">
-        <v>3677.42694750211</v>
+        <v>3761.774871691765</v>
       </c>
       <c r="U8" t="n">
-        <v>3677.42694750211</v>
+        <v>3761.774871691765</v>
       </c>
       <c r="V8" t="n">
-        <v>3677.42694750211</v>
+        <v>3761.774871691765</v>
       </c>
       <c r="W8" t="n">
-        <v>3272.571492913144</v>
+        <v>3356.919417102798</v>
       </c>
       <c r="X8" t="n">
-        <v>2853.429029492454</v>
+        <v>2937.776953682109</v>
       </c>
       <c r="Y8" t="n">
-        <v>2445.142905792108</v>
+        <v>2529.490829981762</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>77.94988349258144</v>
       </c>
       <c r="I9" t="n">
-        <v>77.94988349258144</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J9" t="n">
-        <v>77.94988349258144</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K9" t="n">
-        <v>77.94988349258144</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L9" t="n">
-        <v>77.94988349258144</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M9" t="n">
-        <v>77.94988349258144</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N9" t="n">
-        <v>659.3870586563556</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O9" t="n">
-        <v>1624.016866877051</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P9" t="n">
-        <v>1624.016866877051</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q9" t="n">
         <v>1624.016866877051</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>980.300990066219</v>
+        <v>1157.008044104463</v>
       </c>
       <c r="C10" t="n">
-        <v>807.739278549444</v>
+        <v>984.4463325876878</v>
       </c>
       <c r="D10" t="n">
-        <v>641.8612857509667</v>
+        <v>818.5683397892105</v>
       </c>
       <c r="E10" t="n">
-        <v>472.1032820017039</v>
+        <v>648.8103360399477</v>
       </c>
       <c r="F10" t="n">
         <v>472.1032820017039</v>
@@ -4989,25 +4989,25 @@
         <v>2673.191672100753</v>
       </c>
       <c r="S10" t="n">
-        <v>2513.950303398749</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="T10" t="n">
-        <v>2482.345947427858</v>
+        <v>2659.053001466102</v>
       </c>
       <c r="U10" t="n">
-        <v>2203.912946680963</v>
+        <v>2380.620000719207</v>
       </c>
       <c r="V10" t="n">
-        <v>1916.957438551394</v>
+        <v>2093.664492589638</v>
       </c>
       <c r="W10" t="n">
-        <v>1644.931034137685</v>
+        <v>1821.638088175929</v>
       </c>
       <c r="X10" t="n">
-        <v>1399.539279471098</v>
+        <v>1576.246333509342</v>
       </c>
       <c r="Y10" t="n">
-        <v>1172.119608785206</v>
+        <v>1348.82666282345</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1642.530127068233</v>
+        <v>2158.794242647477</v>
       </c>
       <c r="C11" t="n">
-        <v>1204.387654251657</v>
+        <v>1720.6517698309</v>
       </c>
       <c r="D11" t="n">
-        <v>768.4778694261013</v>
+        <v>1284.741985005345</v>
       </c>
       <c r="E11" t="n">
-        <v>768.4778694261013</v>
+        <v>850.9672401636399</v>
       </c>
       <c r="F11" t="n">
-        <v>768.4778694261013</v>
+        <v>423.0998105728476</v>
       </c>
       <c r="G11" t="n">
-        <v>367.0800380493652</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H11" t="n">
-        <v>77.94988349258144</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I11" t="n">
         <v>77.94988349258144</v>
       </c>
       <c r="J11" t="n">
-        <v>513.2045709454993</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K11" t="n">
-        <v>1347.554862903677</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.184671124372</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="M11" t="n">
-        <v>2353.531449084023</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="N11" t="n">
-        <v>2353.531449084023</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="O11" t="n">
-        <v>2353.531449084023</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P11" t="n">
-        <v>3181.84132391742</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q11" t="n">
-        <v>3728.340109876015</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R11" t="n">
         <v>3897.494174629071</v>
       </c>
       <c r="S11" t="n">
-        <v>3897.494174629071</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T11" t="n">
-        <v>3897.494174629071</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U11" t="n">
-        <v>3663.730689329317</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V11" t="n">
-        <v>3301.113739263144</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W11" t="n">
-        <v>2896.258284674177</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="X11" t="n">
-        <v>2477.115821253488</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="Y11" t="n">
-        <v>2068.829697553141</v>
+        <v>2158.794242647477</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>428.5718816192513</v>
       </c>
       <c r="K12" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L12" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M12" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N12" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O12" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P12" t="n">
         <v>1083.277928244975</v>
@@ -5223,7 +5223,7 @@
         <v>2694.609493395381</v>
       </c>
       <c r="R13" t="n">
-        <v>2694.609493395381</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="S13" t="n">
         <v>2676.370324352697</v>
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2295.436075788677</v>
+        <v>1813.644315567211</v>
       </c>
       <c r="C14" t="n">
-        <v>1857.2936029721</v>
+        <v>1375.501842750634</v>
       </c>
       <c r="D14" t="n">
-        <v>1421.383818146545</v>
+        <v>939.5920579250785</v>
       </c>
       <c r="E14" t="n">
-        <v>987.60907330484</v>
+        <v>505.8173130833737</v>
       </c>
       <c r="F14" t="n">
-        <v>559.7416437140478</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="G14" t="n">
-        <v>158.3438123373116</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H14" t="n">
-        <v>78.36667286544143</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I14" t="n">
         <v>77.94988349258144</v>
       </c>
       <c r="J14" t="n">
-        <v>513.2045709454993</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K14" t="n">
-        <v>1347.554862903677</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.184671124372</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="M14" t="n">
-        <v>2353.531449084023</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="N14" t="n">
-        <v>2353.531449084023</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="O14" t="n">
-        <v>2353.531449084023</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P14" t="n">
-        <v>3181.84132391742</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q14" t="n">
-        <v>3728.340109876015</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R14" t="n">
         <v>3897.494174629071</v>
@@ -5308,22 +5308,22 @@
         <v>3897.494174629071</v>
       </c>
       <c r="T14" t="n">
-        <v>3897.494174629071</v>
+        <v>3834.844877828295</v>
       </c>
       <c r="U14" t="n">
-        <v>3897.494174629071</v>
+        <v>3834.844877828295</v>
       </c>
       <c r="V14" t="n">
-        <v>3534.877224562898</v>
+        <v>3472.227927762121</v>
       </c>
       <c r="W14" t="n">
-        <v>3130.021769973931</v>
+        <v>3067.372473173155</v>
       </c>
       <c r="X14" t="n">
-        <v>3130.021769973931</v>
+        <v>2648.230009752465</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.735646273585</v>
+        <v>2239.943886052119</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>428.5718816192513</v>
       </c>
       <c r="K15" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L15" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M15" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N15" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O15" t="n">
-        <v>1083.277928244975</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P15" t="n">
         <v>1083.277928244975</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>787.4437209101934</v>
+        <v>1157.008044104463</v>
       </c>
       <c r="C16" t="n">
-        <v>614.8820093934183</v>
+        <v>984.4463325876878</v>
       </c>
       <c r="D16" t="n">
-        <v>449.004016594941</v>
+        <v>818.5683397892105</v>
       </c>
       <c r="E16" t="n">
-        <v>279.2460128456783</v>
+        <v>648.8103360399477</v>
       </c>
       <c r="F16" t="n">
-        <v>102.5389588074345</v>
+        <v>472.1032820017039</v>
       </c>
       <c r="G16" t="n">
-        <v>77.94988349258144</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="H16" t="n">
-        <v>77.94988349258144</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I16" t="n">
         <v>77.94988349258144</v>
@@ -5460,28 +5460,28 @@
         <v>2694.609493395381</v>
       </c>
       <c r="R16" t="n">
-        <v>2694.609493395381</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S16" t="n">
-        <v>2535.368124693377</v>
+        <v>2513.950303398749</v>
       </c>
       <c r="T16" t="n">
-        <v>2289.488678271833</v>
+        <v>2268.070856977205</v>
       </c>
       <c r="U16" t="n">
-        <v>2011.055677524938</v>
+        <v>2093.664492589638</v>
       </c>
       <c r="V16" t="n">
-        <v>1724.100169395368</v>
+        <v>2093.664492589638</v>
       </c>
       <c r="W16" t="n">
-        <v>1452.07376498166</v>
+        <v>1821.638088175929</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.682010315072</v>
+        <v>1576.246333509342</v>
       </c>
       <c r="Y16" t="n">
-        <v>979.2623396291806</v>
+        <v>1348.82666282345</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5557,10 +5557,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.9010479080736</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>750.3393363912985</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>584.4613435928212</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.825451691258</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.946005269713</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2146.513004522818</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1859.557496393248</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.53109197954</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1342.139337312952</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1114.719666627061</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5791,13 +5791,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>525.945884713274</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1601.005850966133</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2758.053686176684</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176684</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>377.4584987047128</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>211.8672237305405</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1630.536833231458</v>
+        <v>2140.780795862916</v>
       </c>
       <c r="C41" t="n">
-        <v>1630.536833231458</v>
+        <v>1702.638323046339</v>
       </c>
       <c r="D41" t="n">
         <v>1630.536833231458</v>
@@ -7411,10 +7411,10 @@
         <v>77.94988349258144</v>
       </c>
       <c r="J41" t="n">
-        <v>77.94988349258144</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K41" t="n">
-        <v>912.3001754507594</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L41" t="n">
         <v>1558.055705616386</v>
@@ -7438,25 +7438,25 @@
         <v>3897.494174629071</v>
       </c>
       <c r="S41" t="n">
-        <v>3897.494174629071</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T41" t="n">
-        <v>3677.42694750211</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U41" t="n">
-        <v>3418.204644819127</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V41" t="n">
-        <v>3055.587694752953</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W41" t="n">
-        <v>2650.732240163987</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="X41" t="n">
-        <v>2231.589776743298</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="Y41" t="n">
-        <v>1823.303653042951</v>
+        <v>2567.080366347824</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>928.4459205695127</v>
+        <v>925.2672683175688</v>
       </c>
       <c r="C43" t="n">
-        <v>755.8842090527377</v>
+        <v>752.7055568007937</v>
       </c>
       <c r="D43" t="n">
-        <v>590.0062162542604</v>
+        <v>586.8275640023164</v>
       </c>
       <c r="E43" t="n">
-        <v>420.2482125049976</v>
+        <v>417.0695602530537</v>
       </c>
       <c r="F43" t="n">
-        <v>243.5411584667538</v>
+        <v>240.3625062148099</v>
       </c>
       <c r="G43" t="n">
         <v>77.94988349258144</v>
@@ -7593,28 +7593,28 @@
         <v>2694.609493395381</v>
       </c>
       <c r="R43" t="n">
-        <v>2694.609493395381</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S43" t="n">
-        <v>2676.370324352697</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="T43" t="n">
-        <v>2430.490877931152</v>
+        <v>2427.312225679208</v>
       </c>
       <c r="U43" t="n">
-        <v>2152.057877184257</v>
+        <v>2148.879224932313</v>
       </c>
       <c r="V43" t="n">
-        <v>1865.102369054688</v>
+        <v>1861.923716802744</v>
       </c>
       <c r="W43" t="n">
-        <v>1593.075964640979</v>
+        <v>1589.897312389035</v>
       </c>
       <c r="X43" t="n">
-        <v>1347.684209974392</v>
+        <v>1344.505557722448</v>
       </c>
       <c r="Y43" t="n">
-        <v>1120.2645392885</v>
+        <v>1117.085887036556</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2215.458936316807</v>
+        <v>1739.651779226788</v>
       </c>
       <c r="C44" t="n">
-        <v>1777.31646350023</v>
+        <v>1301.509306410211</v>
       </c>
       <c r="D44" t="n">
-        <v>1341.406678674675</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="E44" t="n">
-        <v>907.6319338329698</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F44" t="n">
-        <v>479.7645042421776</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G44" t="n">
-        <v>78.36667286544143</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H44" t="n">
         <v>78.36667286544143</v>
@@ -7648,52 +7648,52 @@
         <v>77.94988349258144</v>
       </c>
       <c r="J44" t="n">
-        <v>77.94988349258144</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K44" t="n">
-        <v>912.3001754507594</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L44" t="n">
-        <v>912.3001754507594</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M44" t="n">
-        <v>1558.055705616386</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N44" t="n">
-        <v>1558.055705616386</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O44" t="n">
-        <v>2522.685513837081</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P44" t="n">
-        <v>3350.995388670477</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q44" t="n">
-        <v>3897.494174629071</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R44" t="n">
         <v>3897.494174629071</v>
       </c>
       <c r="S44" t="n">
-        <v>3897.494174629071</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T44" t="n">
-        <v>3897.494174629071</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U44" t="n">
-        <v>3897.494174629071</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V44" t="n">
-        <v>3874.042548511718</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W44" t="n">
-        <v>3469.187093922751</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="X44" t="n">
-        <v>3050.044630502061</v>
+        <v>2147.937902927134</v>
       </c>
       <c r="Y44" t="n">
-        <v>2641.758506801715</v>
+        <v>1739.651779226788</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1157.008044104463</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C46" t="n">
-        <v>984.4463325876878</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D46" t="n">
-        <v>818.5683397892105</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E46" t="n">
-        <v>648.8103360399477</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F46" t="n">
-        <v>472.1032820017039</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G46" t="n">
-        <v>306.5120070275316</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H46" t="n">
-        <v>166.6098327179061</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I46" t="n">
         <v>77.94988349258144</v>
@@ -7833,25 +7833,25 @@
         <v>2694.609493395381</v>
       </c>
       <c r="S46" t="n">
-        <v>2535.368124693377</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T46" t="n">
-        <v>2289.488678271833</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U46" t="n">
-        <v>2289.488678271833</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V46" t="n">
-        <v>2093.664492589638</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W46" t="n">
-        <v>1821.638088175929</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X46" t="n">
-        <v>1576.246333509342</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y46" t="n">
-        <v>1348.82666282345</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
   </sheetData>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>41.76442218146576</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>974.3735436572679</v>
@@ -8236,10 +8236,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>229.9237453570968</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>28.24564908821003</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>974.3735436572679</v>
+        <v>884.5424948664939</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>514.5814108871991</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>587.3102779432063</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>974.3735436572679</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>652.2783132986124</v>
+      </c>
+      <c r="O11" t="n">
         <v>974.3735436572679</v>
-      </c>
-      <c r="M11" t="n">
-        <v>41.76442218146576</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
+        <v>652.2783132986124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>974.3735436572679</v>
-      </c>
-      <c r="M14" t="n">
-        <v>41.76442218146576</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>427.964691356055</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10123,16 +10123,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>652.2783132986124</v>
+        <v>212.6271138512207</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M44" t="n">
-        <v>652.2783132986124</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>342.3368997438525</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>25.20422920939643</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>207.0614849340644</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>155.8437510229226</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>110.0349065174851</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>29.99283294136596</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>231.1974231666811</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>360.1702120605677</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.146865729424462</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>327.8509411370468</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>335.7736707093313</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552932.9065101378</v>
+        <v>552932.9065101377</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>552932.9065101378</v>
+        <v>552932.9065101377</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>552932.9065101377</v>
+        <v>552932.9065101378</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>308284.7089369847</v>
+      </c>
+      <c r="C2" t="n">
         <v>308284.7089369848</v>
-      </c>
-      <c r="C2" t="n">
-        <v>308284.7089369847</v>
       </c>
       <c r="D2" t="n">
         <v>308284.7089369848</v>
@@ -26331,7 +26331,7 @@
         <v>302943.1108789775</v>
       </c>
       <c r="H2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="I2" t="n">
         <v>302943.1108789775</v>
@@ -26352,10 +26352,10 @@
         <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
+        <v>248965.4279047608</v>
+      </c>
+      <c r="P2" t="n">
         <v>248965.4279047609</v>
-      </c>
-      <c r="P2" t="n">
-        <v>248965.4279047608</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>103722.7246376233</v>
       </c>
       <c r="D4" t="n">
-        <v>103722.7246376233</v>
+        <v>103722.7246376234</v>
       </c>
       <c r="E4" t="n">
         <v>44840.12888185008</v>
@@ -26435,31 +26435,31 @@
         <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
         <v>44840.12888185009</v>
       </c>
       <c r="P4" t="n">
-        <v>44840.12888185009</v>
+        <v>44840.12888185008</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137637.7084546069</v>
+        <v>-137637.7084546071</v>
       </c>
       <c r="C6" t="n">
-        <v>12555.53938962711</v>
+        <v>12555.5393896272</v>
       </c>
       <c r="D6" t="n">
-        <v>111692.4728449996</v>
+        <v>111692.4728449995</v>
       </c>
       <c r="E6" t="n">
-        <v>144883.3875685488</v>
+        <v>144625.4776510175</v>
       </c>
       <c r="F6" t="n">
-        <v>144883.3875685489</v>
+        <v>144625.4776510174</v>
       </c>
       <c r="G6" t="n">
-        <v>87372.18980665656</v>
+        <v>87348.96546727393</v>
       </c>
       <c r="H6" t="n">
-        <v>170663.0471635623</v>
+        <v>170639.8228241796</v>
       </c>
       <c r="I6" t="n">
-        <v>170663.0471635622</v>
+        <v>170639.8228241796</v>
       </c>
       <c r="J6" t="n">
-        <v>-3988.301554143953</v>
+        <v>-4011.525893526535</v>
       </c>
       <c r="K6" t="n">
-        <v>91687.53067382946</v>
+        <v>91664.30633444682</v>
       </c>
       <c r="L6" t="n">
-        <v>170663.0471635622</v>
+        <v>170639.8228241796</v>
       </c>
       <c r="M6" t="n">
-        <v>170663.0471635622</v>
+        <v>170639.8228241796</v>
       </c>
       <c r="N6" t="n">
-        <v>170663.0471635622</v>
+        <v>170639.8228241796</v>
       </c>
       <c r="O6" t="n">
-        <v>144883.3875685489</v>
+        <v>144625.4776510175</v>
       </c>
       <c r="P6" t="n">
-        <v>144883.3875685488</v>
+        <v>144625.4776510175</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>187.708804878765</v>
+        <v>3.329665100430134</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>40.15930123557339</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>296.5091582323918</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.09182346862633</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>194.6494449995108</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>83.50444494775826</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>212.1323395461467</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>41.76442218146576</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>229.9237453570968</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>28.24564908821003</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>974.3735436572679</v>
+        <v>884.5424948664939</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>514.5814108871991</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>587.3102779432063</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>974.3735436572679</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>652.2783132986124</v>
+      </c>
+      <c r="O11" t="n">
         <v>974.3735436572679</v>
       </c>
-      <c r="M11" t="n">
-        <v>41.76442218146576</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
+        <v>652.2783132986124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>974.3735436572679</v>
       </c>
-      <c r="M14" t="n">
-        <v>41.76442218146576</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>427.964691356055</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,16 +36843,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>652.2783132986124</v>
+        <v>212.6271138512207</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M44" t="n">
-        <v>652.2783132986124</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>974.3735436572679</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
